--- a/BiTech.Library/BiTech.Library/Tempaltes/MauPNS.xlsx
+++ b/BiTech.Library/BiTech.Library/Tempaltes/MauPNS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro Test\pro2\BiTech.Library\BiTech.Library\Tempaltes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24255" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24255" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,11 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -507,16 +508,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" activeCellId="5" sqref="C1:C1048576 D1:D1048576 B1 B1:B1048576 A1:A1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
